--- a/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
+++ b/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0A2161-F1BF-2E4B-932B-CDBE8E1C7BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C63066-D720-C242-956B-C12A66F47511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="660" windowWidth="12020" windowHeight="13300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="12680" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1939526800</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Software Version</t>
   </si>
@@ -204,6 +205,15 @@
   </si>
   <si>
     <t>DMA S1</t>
+  </si>
+  <si>
+    <t>pDNA std</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>sigma_r</t>
   </si>
 </sst>
 </file>
@@ -441,13 +451,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,6 +473,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364941</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66303</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265822</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>109628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E4CBAC-5710-3EB7-C0BA-D72DF63B0FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1197010" y="4606188"/>
+          <a:ext cx="4893295" cy="2291371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -730,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -973,7 +1032,7 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="23" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="7"/>
@@ -993,7 +1052,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B39" s="23"/>
+      <c r="B39" s="24"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1011,7 +1070,7 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="23" t="s">
         <v>34</v>
       </c>
       <c r="C40" s="7"/>
@@ -1049,7 +1108,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B41" s="23"/>
+      <c r="B41" s="24"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
         <v>35</v>
@@ -1085,7 +1144,7 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="7"/>
@@ -1123,7 +1182,7 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B43" s="23"/>
+      <c r="B43" s="24"/>
       <c r="C43" s="9"/>
       <c r="D43" s="14">
         <v>2393229</v>
@@ -1159,7 +1218,7 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="7"/>
@@ -1197,7 +1256,7 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B45" s="23"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
         <v>35</v>
@@ -1233,7 +1292,7 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="7"/>
@@ -1253,7 +1312,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B47" s="23"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -1271,7 +1330,7 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C48" s="7"/>
@@ -1291,7 +1350,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B49" s="23"/>
+      <c r="B49" s="24"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
@@ -1309,7 +1368,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="23" t="s">
         <v>40</v>
       </c>
       <c r="C50" s="7"/>
@@ -1329,7 +1388,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B51" s="23"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -1347,7 +1406,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="7"/>
@@ -1367,7 +1426,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" ht="36" x14ac:dyDescent="0.15">
-      <c r="B53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -1406,34 +1465,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE7FC2-3812-B449-9E14-8334795274B6}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B8"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="G1" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B2">
@@ -1445,8 +1507,8 @@
         <v>5871.666666666667</v>
       </c>
       <c r="D2">
-        <f>STDEV(F$2,B2)</f>
-        <v>13.81628097320009</v>
+        <f>STDEV(A19:C19)</f>
+        <v>122.53298875540959</v>
       </c>
       <c r="E2">
         <f>AVERAGE(G23:I23)</f>
@@ -1456,9 +1518,13 @@
         <f>AVERAGE(G23:I23)/100</f>
         <v>87.016666666666666</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="G2">
+        <f>STDEV(G23:I23)</f>
+        <v>580.91508272150531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B3">
@@ -1470,12 +1536,12 @@
         <v>6682.666666666667</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D9" si="0">STDEV(F$2,B3)</f>
-        <v>7.2260078507067655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+        <f>STDEV(D19:F19)/E$2*100</f>
+        <v>2.0389999649774504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B4">
@@ -1487,12 +1553,12 @@
         <v>5640.666666666667</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>15.693411788608117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+        <f>STDEV(G19:I19)/E$2*100</f>
+        <v>0.95074299312097699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B5">
@@ -1504,12 +1570,12 @@
         <v>1061.3333333333333</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>52.905566394778553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+        <f>STDEV(A21:C21)/E$2*100</f>
+        <v>0.17289077335984307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B6">
@@ -1521,12 +1587,20 @@
         <v>1155</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>52.144420999209046</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+        <f>STDEV(D21:F21)/E$2*100</f>
+        <v>0.53013120527121083</v>
+      </c>
+      <c r="G6">
+        <f>C2/E2*100</f>
+        <v>67.477494732809816</v>
+      </c>
+      <c r="H6">
+        <f>G6*SQRT((D2/C2)^2+(G2/E2)^2)</f>
+        <v>4.7196960497940781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B7">
@@ -1538,12 +1612,12 @@
         <v>6145.333333333333</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>11.592436240948876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+        <f>STDEV(G21:I21)/E$2*100</f>
+        <v>1.6385478392728403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B8">
@@ -1555,8 +1629,36 @@
         <v>5065.666666666667</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>20.365923558563253</v>
+        <f>STDEV(A23:C23)/E$2*100</f>
+        <v>17.890914438720642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G11" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11">
+        <f>AVERAGE(A19:C19)/AVERAGE(G23:I23)*100</f>
+        <v>67.477494732809816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12">
+        <f>H11*((D2/C2)^2+(G2/E2))^2^0.5</f>
+        <v>4.5341202035379471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <f>STDEV(A19:C19)</f>
+        <v>122.53298875540959</v>
+      </c>
+      <c r="G15">
+        <f>STDEV(G23:I23)</f>
+        <v>580.91508272150531</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1735,6 +1837,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1742,25 +1845,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778B0228-4473-AC45-874D-8CCA801D4B20}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
       <c r="B2">
@@ -1771,7 +1874,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B3">
@@ -1782,7 +1885,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>50</v>
       </c>
       <c r="B4">
@@ -1793,7 +1896,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B5">
@@ -1804,7 +1907,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B6">
@@ -1815,7 +1918,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B7">
@@ -1826,7 +1929,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>54</v>
       </c>
       <c r="B8">
@@ -1834,6 +1937,109 @@
       </c>
       <c r="C8">
         <v>20.365923558563253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5388E-C3E4-2E45-B63D-E2391EF01940}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>67.500478835472137</v>
+      </c>
+      <c r="C2">
+        <v>1.4081553965379383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>73.587435357211262</v>
+      </c>
+      <c r="C3">
+        <v>2.0389999649774451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>63.70044052863436</v>
+      </c>
+      <c r="C4">
+        <v>0.95074299312097588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>13.503160314116069</v>
+      </c>
+      <c r="C5">
+        <v>0.17289077335984307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>15.146523654472324</v>
+      </c>
+      <c r="C6">
+        <v>0.53013120527121083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>71.024707910362011</v>
+      </c>
+      <c r="C7">
+        <v>1.6385478392728403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>58.306837770542053</v>
+      </c>
+      <c r="C8">
+        <v>17.890914438720642</v>
       </c>
     </row>
   </sheetData>

--- a/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
+++ b/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C63066-D720-C242-956B-C12A66F47511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9345C817-775D-7D4E-8E4D-022F225ED549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="640" windowWidth="12680" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25140" yWindow="1620" windowWidth="26020" windowHeight="19540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
   <si>
     <t>Software Version</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Avg. %</t>
   </si>
   <si>
-    <t>pDNA avg %</t>
-  </si>
-  <si>
     <t>DMA G2</t>
   </si>
   <si>
@@ -210,10 +207,16 @@
     <t>pDNA std</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>sigma_r</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Polyplex Stdev</t>
+  </si>
+  <si>
+    <t>Total std</t>
+  </si>
+  <si>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -481,14 +484,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>364941</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>66303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>265822</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109628</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F40"/>
+    <sheetView topLeftCell="A14" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1463,15 +1466,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE7FC2-3812-B449-9E14-8334795274B6}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>42</v>
       </c>
@@ -1482,361 +1485,375 @@
         <v>43</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>45</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="B3">
+        <f>C3/E$3*100</f>
+        <v>67.477494732809816</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(A20:C20)</f>
+        <v>5871.666666666667</v>
+      </c>
+      <c r="D3">
+        <f>STDEV(A20:C20)</f>
+        <v>122.53298875540959</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(G24:I24)</f>
+        <v>8701.6666666666661</v>
+      </c>
+      <c r="F3">
+        <f>STDEV(G24:I24)</f>
+        <v>580.91508272150531</v>
+      </c>
+      <c r="G3">
+        <f>B3*SQRT((D3/C3)^2+(F$3/E$3)^2)</f>
+        <v>4.7196960497940781</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <f>C4/E$3*100</f>
+        <v>76.797548362382699</v>
+      </c>
+      <c r="C4">
+        <f>AVERAGE(D20:F20)</f>
+        <v>6682.666666666667</v>
+      </c>
+      <c r="D4">
+        <f>STDEV(D20:F20)</f>
+        <v>177.42698028578781</v>
+      </c>
+      <c r="E4">
+        <f>E3/E3*100</f>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G9" si="0">B4*SQRT((D4/C4)^2+(F$3/E$3)^2)</f>
+        <v>5.5175133546386981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B9" si="1">C5/E$3*100</f>
+        <v>64.822830875311254</v>
+      </c>
+      <c r="C5">
+        <f>AVERAGE(G20:I20)</f>
+        <v>5640.666666666667</v>
+      </c>
+      <c r="D5">
+        <f>STDEV(G20:I20)</f>
+        <v>82.73048611807701</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>4.4307184096397778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>12.196897146140588</v>
+      </c>
+      <c r="C6">
+        <f>AVERAGE(A22:C22)</f>
+        <v>1061.3333333333333</v>
+      </c>
+      <c r="D6">
+        <f>STDEV(A22:C22)/E$3*100</f>
+        <v>0.17289077335984307</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.81425580634466288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>13.273319287492818</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE(D22:F22)</f>
+        <v>1155</v>
+      </c>
+      <c r="D7">
+        <f>STDEV(D22:F22)/E$3*100</f>
+        <v>0.53013120527121083</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.88613525494148127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>70.622486113771316</v>
+      </c>
+      <c r="C8">
+        <f>AVERAGE(G22:I22)</f>
+        <v>6145.333333333333</v>
+      </c>
+      <c r="D8">
+        <f>STDEV(G22:I22)/E$3*100</f>
+        <v>1.6385478392728403</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.7147283557962787</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>58.214901359892743</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(A24:C24)</f>
+        <v>5065.666666666667</v>
+      </c>
+      <c r="D9">
+        <f>STDEV(A24:C24)/E$3*100</f>
+        <v>17.890914438720642</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>3.8918068471773313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G12" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2">
-        <f>(AVERAGE(A19:C19)/E$2)*100</f>
-        <v>67.477494732809816</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(A19:C19)</f>
-        <v>5871.666666666667</v>
-      </c>
-      <c r="D2">
-        <f>STDEV(A19:C19)</f>
-        <v>122.53298875540959</v>
-      </c>
-      <c r="E2">
-        <f>AVERAGE(G23:I23)</f>
-        <v>8701.6666666666661</v>
-      </c>
-      <c r="F2">
-        <f>AVERAGE(G23:I23)/100</f>
-        <v>87.016666666666666</v>
-      </c>
-      <c r="G2">
-        <f>STDEV(G23:I23)</f>
-        <v>580.91508272150531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3">
-        <f>AVERAGE(D19:F19)/E$2*100</f>
-        <v>76.797548362382699</v>
-      </c>
-      <c r="C3">
-        <f>AVERAGE(D19:F19)</f>
-        <v>6682.666666666667</v>
-      </c>
-      <c r="D3">
-        <f>STDEV(D19:F19)/E$2*100</f>
-        <v>2.0389999649774504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <f>AVERAGE(G19:I19)/E$2*100</f>
-        <v>64.822830875311254</v>
-      </c>
-      <c r="C4">
-        <f>AVERAGE(G19:I19)</f>
-        <v>5640.666666666667</v>
-      </c>
-      <c r="D4">
-        <f>STDEV(G19:I19)/E$2*100</f>
-        <v>0.95074299312097699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5">
-        <f>AVERAGE(A21:C21)/E$2*100</f>
-        <v>12.196897146140588</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(A21:C21)</f>
-        <v>1061.3333333333333</v>
-      </c>
-      <c r="D5">
-        <f>STDEV(A21:C21)/E$2*100</f>
-        <v>0.17289077335984307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <f>AVERAGE(D21:F21)/E$2*100</f>
-        <v>13.273319287492818</v>
-      </c>
-      <c r="C6">
-        <f>AVERAGE(D21:F21)</f>
-        <v>1155</v>
-      </c>
-      <c r="D6">
-        <f>STDEV(D21:F21)/E$2*100</f>
-        <v>0.53013120527121083</v>
-      </c>
-      <c r="G6">
-        <f>C2/E2*100</f>
-        <v>67.477494732809816</v>
-      </c>
-      <c r="H6">
-        <f>G6*SQRT((D2/C2)^2+(G2/E2)^2)</f>
-        <v>4.7196960497940781</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7">
-        <f>AVERAGE(G21:I21)/E2*100</f>
-        <v>70.622486113771316</v>
-      </c>
-      <c r="C7">
-        <f>AVERAGE(G21:I21)</f>
-        <v>6145.333333333333</v>
-      </c>
-      <c r="D7">
-        <f>STDEV(G21:I21)/E$2*100</f>
-        <v>1.6385478392728403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8">
-        <f>AVERAGE(A23:C23)/E$2*100</f>
-        <v>58.214901359892743</v>
-      </c>
-      <c r="C8">
-        <f>AVERAGE(A23:C23)</f>
-        <v>5065.666666666667</v>
-      </c>
-      <c r="D8">
-        <f>STDEV(A23:C23)/E$2*100</f>
-        <v>17.890914438720642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G11" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11">
-        <f>AVERAGE(A19:C19)/AVERAGE(G23:I23)*100</f>
-        <v>67.477494732809816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12">
-        <f>H11*((D2/C2)^2+(G2/E2))^2^0.5</f>
-        <v>4.5341202035379471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D15">
-        <f>STDEV(A19:C19)</f>
-        <v>122.53298875540959</v>
-      </c>
-      <c r="G15">
-        <f>STDEV(G23:I23)</f>
-        <v>580.91508272150531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="10">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G13" s="22"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
         <v>5890</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B20" s="11">
         <v>5984</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C20" s="10">
         <v>5741</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <v>6793</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E20" s="12">
         <v>6777</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>6478</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G20" s="10">
         <v>5565</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H20" s="10">
         <v>5628</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I20" s="10">
         <v>5729</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
+    <row r="21" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="13">
         <v>1060</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B22" s="13">
         <v>1077</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C22" s="13">
         <v>1047</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>1207</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>1119</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>1139</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>5988</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H22" s="11">
         <v>6182</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I22" s="11">
         <v>6266</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A22" s="14">
+    <row r="23" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A23" s="14">
         <v>2393229</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B23" s="14">
         <v>2438916</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <v>2388046</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <v>2751530</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="15">
         <v>2603218</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="15">
         <v>2658794</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+      <c r="G23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
         <v>6862</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B24" s="16">
         <v>4108</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C24" s="16">
         <v>4227</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>0</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>0</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G24" s="18">
         <v>8860</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H24" s="18">
         <v>9187</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I24" s="19">
         <v>8058</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="20">
+    <row r="25" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="20">
         <v>8369913</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C25" s="20">
         <v>8604512</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="21">
         <v>51812</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E25" s="21">
         <v>18744</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F25" s="21">
         <v>20235</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="G25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C5:C6" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1864,7 +1881,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>67.477494732809816</v>
@@ -1875,7 +1892,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>76.797548362382699</v>
@@ -1886,7 +1903,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>64.822830875311254</v>
@@ -1897,7 +1914,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>12.196897146140588</v>
@@ -1908,7 +1925,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>13.273319287492818</v>
@@ -1919,7 +1936,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>70.622486113771316</v>
@@ -1930,7 +1947,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>58.214901359892743</v>
@@ -1948,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5388E-C3E4-2E45-B63D-E2391EF01940}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1967,7 +1984,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>67.500478835472137</v>
@@ -1978,7 +1995,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>73.587435357211262</v>
@@ -1989,7 +2006,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4">
         <v>63.70044052863436</v>
@@ -2000,7 +2017,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>13.503160314116069</v>
@@ -2011,7 +2028,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>15.146523654472324</v>
@@ -2022,7 +2039,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7">
         <v>71.024707910362011</v>
@@ -2033,7 +2050,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8">
         <v>58.306837770542053</v>

--- a/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
+++ b/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9345C817-775D-7D4E-8E4D-022F225ED549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A85FC-D71E-B54B-8BB7-58C88368592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25140" yWindow="1620" windowWidth="26020" windowHeight="19540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12540" yWindow="1240" windowWidth="13060" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="75" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:L45"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE7FC2-3812-B449-9E14-8334795274B6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1965,7 +1965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E5388E-C3E4-2E45-B63D-E2391EF01940}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
+++ b/PicoGreen_Plots/20231016_PicoGreenAssay_PolymerScreen1_AW_pDNA80_NP5_pDNAcorrection.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51A85FC-D71E-B54B-8BB7-58C88368592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72A3A5D-FFA1-DD4C-8FD2-10EBA58470F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="1240" windowWidth="13060" windowHeight="12540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9420" yWindow="1520" windowWidth="14860" windowHeight="21420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="MethodPointer1">1939526800</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Software Version</t>
   </si>
@@ -217,6 +218,21 @@
   </si>
   <si>
     <t>pDNA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G1</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EE7FC2-3812-B449-9E14-8334795274B6}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1966,7 +1982,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2062,4 +2078,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CBF6BB-EA2E-334F-9FCD-F1A60093DF3D}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2">
+        <v>71.024707910362011</v>
+      </c>
+      <c r="C2">
+        <v>1.6385478392728403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>13.503160314116069</v>
+      </c>
+      <c r="C3">
+        <v>0.17289077335984307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <v>63.70044052863436</v>
+      </c>
+      <c r="C5">
+        <v>0.95074299312097588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>